--- a/CumulativeTestsByTypeByCounty/2022-01-15.xlsx
+++ b/CumulativeTestsByTypeByCounty/2022-01-15.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>80660</v>
+        <v>80768</v>
       </c>
       <c r="C2" s="4">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="D2" s="4">
-        <v>40401</v>
+        <v>40583</v>
       </c>
       <c r="E2" s="4">
-        <v>123136</v>
+        <v>123428</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>6081</v>
+        <v>6125</v>
       </c>
       <c r="C3" s="4">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D3" s="4">
-        <v>6641</v>
+        <v>6684</v>
       </c>
       <c r="E3" s="4">
-        <v>13054</v>
+        <v>13144</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>81756</v>
+        <v>81958</v>
       </c>
       <c r="C4" s="4">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="D4" s="4">
-        <v>80863</v>
+        <v>81021</v>
       </c>
       <c r="E4" s="4">
-        <v>167085</v>
+        <v>167446</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>16882</v>
+        <v>16967</v>
       </c>
       <c r="C5" s="4">
-        <v>2905</v>
+        <v>2907</v>
       </c>
       <c r="D5" s="4">
-        <v>14189</v>
+        <v>14213</v>
       </c>
       <c r="E5" s="4">
-        <v>33976</v>
+        <v>34087</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>4699</v>
+        <v>4743</v>
       </c>
       <c r="C6" s="4">
         <v>873</v>
       </c>
       <c r="D6" s="4">
-        <v>1801</v>
+        <v>1819</v>
       </c>
       <c r="E6" s="4">
-        <v>7373</v>
+        <v>7435</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,16 +1156,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="C7" s="4">
         <v>341</v>
       </c>
       <c r="D7" s="4">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="E7" s="4">
-        <v>2999</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>110698</v>
+        <v>111223</v>
       </c>
       <c r="C8" s="4">
         <v>1469</v>
       </c>
       <c r="D8" s="4">
-        <v>16281</v>
+        <v>16349</v>
       </c>
       <c r="E8" s="4">
-        <v>128448</v>
+        <v>129041</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>30463</v>
+        <v>30600</v>
       </c>
       <c r="C9" s="4">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="D9" s="4">
-        <v>5878</v>
+        <v>5901</v>
       </c>
       <c r="E9" s="4">
-        <v>38207</v>
+        <v>38369</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2717</v>
+        <v>2741</v>
       </c>
       <c r="C10" s="4">
         <v>99</v>
       </c>
       <c r="D10" s="4">
-        <v>1988</v>
+        <v>2001</v>
       </c>
       <c r="E10" s="4">
-        <v>4804</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>14967</v>
+        <v>15063</v>
       </c>
       <c r="C11" s="4">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D11" s="4">
-        <v>9040</v>
+        <v>9085</v>
       </c>
       <c r="E11" s="4">
-        <v>24849</v>
+        <v>24991</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>100968</v>
+        <v>101325</v>
       </c>
       <c r="C12" s="4">
-        <v>2565</v>
+        <v>2574</v>
       </c>
       <c r="D12" s="4">
-        <v>45613</v>
+        <v>45806</v>
       </c>
       <c r="E12" s="4">
-        <v>149146</v>
+        <v>149705</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,16 +1258,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>2224</v>
+        <v>2238</v>
       </c>
       <c r="C13" s="4">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D13" s="4">
-        <v>4011</v>
+        <v>4042</v>
       </c>
       <c r="E13" s="4">
-        <v>6793</v>
+        <v>6843</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>54144</v>
+        <v>54236</v>
       </c>
       <c r="C14" s="4">
-        <v>8275</v>
+        <v>8278</v>
       </c>
       <c r="D14" s="4">
-        <v>24645</v>
+        <v>24896</v>
       </c>
       <c r="E14" s="4">
-        <v>87064</v>
+        <v>87410</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>423947</v>
+        <v>424790</v>
       </c>
       <c r="C15" s="4">
-        <v>15849</v>
+        <v>15856</v>
       </c>
       <c r="D15" s="4">
-        <v>101285</v>
+        <v>102578</v>
       </c>
       <c r="E15" s="4">
-        <v>541081</v>
+        <v>543224</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>4400385</v>
+        <v>4421177</v>
       </c>
       <c r="C16" s="4">
-        <v>76789</v>
+        <v>76910</v>
       </c>
       <c r="D16" s="4">
-        <v>664183</v>
+        <v>668689</v>
       </c>
       <c r="E16" s="4">
-        <v>5141357</v>
+        <v>5166776</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>9632</v>
+        <v>9649</v>
       </c>
       <c r="C17" s="4">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D17" s="4">
-        <v>4602</v>
+        <v>4727</v>
       </c>
       <c r="E17" s="4">
-        <v>14773</v>
+        <v>14917</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>12630</v>
+        <v>12662</v>
       </c>
       <c r="C19" s="4">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D19" s="4">
-        <v>9667</v>
+        <v>9689</v>
       </c>
       <c r="E19" s="4">
-        <v>22894</v>
+        <v>22951</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>91363</v>
+        <v>91590</v>
       </c>
       <c r="C20" s="4">
-        <v>10624</v>
+        <v>10634</v>
       </c>
       <c r="D20" s="4">
-        <v>38531</v>
+        <v>38706</v>
       </c>
       <c r="E20" s="4">
-        <v>140518</v>
+        <v>140930</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>611164</v>
+        <v>613787</v>
       </c>
       <c r="C21" s="4">
-        <v>26430</v>
+        <v>26451</v>
       </c>
       <c r="D21" s="4">
-        <v>125403</v>
+        <v>125900</v>
       </c>
       <c r="E21" s="4">
-        <v>762997</v>
+        <v>766138</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>464833</v>
+        <v>467768</v>
       </c>
       <c r="C22" s="4">
-        <v>13043</v>
+        <v>13063</v>
       </c>
       <c r="D22" s="4">
-        <v>53347</v>
+        <v>53499</v>
       </c>
       <c r="E22" s="4">
-        <v>531223</v>
+        <v>534330</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>9421</v>
+        <v>9429</v>
       </c>
       <c r="C23" s="4">
         <v>176</v>
       </c>
       <c r="D23" s="4">
-        <v>3561</v>
+        <v>3569</v>
       </c>
       <c r="E23" s="4">
-        <v>13158</v>
+        <v>13174</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,16 +1445,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>1432</v>
+        <v>1449</v>
       </c>
       <c r="C24" s="4">
         <v>142</v>
       </c>
       <c r="D24" s="4">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E24" s="4">
-        <v>1783</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>25607</v>
+        <v>25628</v>
       </c>
       <c r="C25" s="4">
         <v>1883</v>
       </c>
       <c r="D25" s="4">
-        <v>6780</v>
+        <v>6788</v>
       </c>
       <c r="E25" s="4">
-        <v>34270</v>
+        <v>34299</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>27302</v>
+        <v>27366</v>
       </c>
       <c r="C26" s="4">
         <v>1262</v>
       </c>
       <c r="D26" s="4">
-        <v>44498</v>
+        <v>44791</v>
       </c>
       <c r="E26" s="4">
-        <v>73062</v>
+        <v>73419</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>26953</v>
+        <v>27108</v>
       </c>
       <c r="C27" s="4">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D27" s="4">
-        <v>7217</v>
+        <v>7230</v>
       </c>
       <c r="E27" s="4">
-        <v>35018</v>
+        <v>35188</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>60550</v>
+        <v>60654</v>
       </c>
       <c r="C28" s="4">
-        <v>2449</v>
+        <v>2455</v>
       </c>
       <c r="D28" s="4">
-        <v>15000</v>
+        <v>15028</v>
       </c>
       <c r="E28" s="4">
-        <v>77999</v>
+        <v>78137</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>63916</v>
+        <v>64117</v>
       </c>
       <c r="C29" s="4">
-        <v>2243</v>
+        <v>2247</v>
       </c>
       <c r="D29" s="4">
-        <v>18098</v>
+        <v>18174</v>
       </c>
       <c r="E29" s="4">
-        <v>84257</v>
+        <v>84538</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>21388</v>
+        <v>21561</v>
       </c>
       <c r="C30" s="4">
-        <v>2286</v>
+        <v>2290</v>
       </c>
       <c r="D30" s="4">
-        <v>15104</v>
+        <v>15150</v>
       </c>
       <c r="E30" s="4">
-        <v>38778</v>
+        <v>39001</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>7317</v>
+        <v>7337</v>
       </c>
       <c r="C31" s="4">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D31" s="4">
-        <v>12227</v>
+        <v>12270</v>
       </c>
       <c r="E31" s="4">
-        <v>19883</v>
+        <v>19947</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>451522</v>
+        <v>453206</v>
       </c>
       <c r="C32" s="4">
-        <v>11513</v>
+        <v>11527</v>
       </c>
       <c r="D32" s="4">
-        <v>157364</v>
+        <v>158024</v>
       </c>
       <c r="E32" s="4">
-        <v>620399</v>
+        <v>622757</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>9938</v>
+        <v>9968</v>
       </c>
       <c r="C33" s="4">
         <v>553</v>
       </c>
       <c r="D33" s="4">
-        <v>4160</v>
+        <v>4179</v>
       </c>
       <c r="E33" s="4">
-        <v>14651</v>
+        <v>14700</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>3114</v>
+        <v>3124</v>
       </c>
       <c r="C34" s="4">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D34" s="4">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="E34" s="4">
-        <v>5867</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>19885</v>
+        <v>19987</v>
       </c>
       <c r="C35" s="4">
-        <v>3364</v>
+        <v>3366</v>
       </c>
       <c r="D35" s="4">
-        <v>13268</v>
+        <v>13497</v>
       </c>
       <c r="E35" s="4">
-        <v>36517</v>
+        <v>36850</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>8321</v>
+        <v>8416</v>
       </c>
       <c r="C36" s="4">
         <v>444</v>
       </c>
       <c r="D36" s="4">
-        <v>3676</v>
+        <v>3766</v>
       </c>
       <c r="E36" s="4">
-        <v>12441</v>
+        <v>12626</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>14918</v>
+        <v>14952</v>
       </c>
       <c r="C37" s="4">
         <v>911</v>
       </c>
       <c r="D37" s="4">
-        <v>3778</v>
+        <v>3796</v>
       </c>
       <c r="E37" s="4">
-        <v>19607</v>
+        <v>19659</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>38536</v>
+        <v>38668</v>
       </c>
       <c r="C38" s="4">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="D38" s="4">
-        <v>32335</v>
+        <v>32715</v>
       </c>
       <c r="E38" s="4">
-        <v>72168</v>
+        <v>72682</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>7502</v>
+        <v>7551</v>
       </c>
       <c r="C39" s="4">
         <v>477</v>
       </c>
       <c r="D39" s="4">
-        <v>6633</v>
+        <v>6641</v>
       </c>
       <c r="E39" s="4">
-        <v>14612</v>
+        <v>14669</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>6948</v>
+        <v>6974</v>
       </c>
       <c r="C40" s="4">
         <v>711</v>
       </c>
       <c r="D40" s="4">
-        <v>5768</v>
+        <v>5820</v>
       </c>
       <c r="E40" s="4">
-        <v>13427</v>
+        <v>13505</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,16 +1734,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>1802</v>
+        <v>1812</v>
       </c>
       <c r="C41" s="4">
         <v>29</v>
       </c>
       <c r="D41" s="4">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E41" s="4">
-        <v>2297</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>3011</v>
+        <v>3015</v>
       </c>
       <c r="C42" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D42" s="4">
-        <v>3583</v>
+        <v>3595</v>
       </c>
       <c r="E42" s="4">
-        <v>6654</v>
+        <v>6672</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>4671</v>
+        <v>4697</v>
       </c>
       <c r="C43" s="4">
         <v>176</v>
       </c>
       <c r="D43" s="4">
-        <v>5344</v>
+        <v>5359</v>
       </c>
       <c r="E43" s="4">
-        <v>10191</v>
+        <v>10232</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1674291</v>
+        <v>1686973</v>
       </c>
       <c r="C44" s="4">
-        <v>112643</v>
+        <v>112940</v>
       </c>
       <c r="D44" s="4">
-        <v>335366</v>
+        <v>338651</v>
       </c>
       <c r="E44" s="4">
-        <v>2122300</v>
+        <v>2138564</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>2037</v>
+        <v>2047</v>
       </c>
       <c r="C45" s="4">
         <v>144</v>
       </c>
       <c r="D45" s="4">
-        <v>3236</v>
+        <v>3280</v>
       </c>
       <c r="E45" s="4">
-        <v>5417</v>
+        <v>5471</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>19730</v>
+        <v>19801</v>
       </c>
       <c r="C46" s="4">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="D46" s="4">
-        <v>10495</v>
+        <v>10509</v>
       </c>
       <c r="E46" s="4">
-        <v>31440</v>
+        <v>31528</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>197510</v>
+        <v>198192</v>
       </c>
       <c r="C47" s="4">
-        <v>12814</v>
+        <v>12845</v>
       </c>
       <c r="D47" s="4">
-        <v>55507</v>
+        <v>55683</v>
       </c>
       <c r="E47" s="4">
-        <v>265831</v>
+        <v>266720</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>11516</v>
+        <v>11578</v>
       </c>
       <c r="C48" s="4">
         <v>381</v>
       </c>
       <c r="D48" s="4">
-        <v>6418</v>
+        <v>6517</v>
       </c>
       <c r="E48" s="4">
-        <v>18315</v>
+        <v>18476</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>2497</v>
+        <v>2501</v>
       </c>
       <c r="C49" s="4">
         <v>38</v>
       </c>
       <c r="D49" s="4">
-        <v>4607</v>
+        <v>4617</v>
       </c>
       <c r="E49" s="4">
-        <v>7142</v>
+        <v>7156</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>33597</v>
+        <v>33691</v>
       </c>
       <c r="C50" s="4">
-        <v>2334</v>
+        <v>2338</v>
       </c>
       <c r="D50" s="4">
-        <v>13221</v>
+        <v>13269</v>
       </c>
       <c r="E50" s="4">
-        <v>49152</v>
+        <v>49298</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>139803</v>
+        <v>140034</v>
       </c>
       <c r="C51" s="4">
         <v>2469</v>
       </c>
       <c r="D51" s="4">
-        <v>31187</v>
+        <v>31361</v>
       </c>
       <c r="E51" s="4">
-        <v>173459</v>
+        <v>173864</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,16 +1921,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>1350</v>
+        <v>1356</v>
       </c>
       <c r="C52" s="4">
         <v>75</v>
       </c>
       <c r="D52" s="4">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E52" s="4">
-        <v>2493</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>5000</v>
+        <v>5004</v>
       </c>
       <c r="C53" s="4">
         <v>96</v>
       </c>
       <c r="D53" s="4">
-        <v>4243</v>
+        <v>4279</v>
       </c>
       <c r="E53" s="4">
-        <v>9339</v>
+        <v>9379</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1955,16 +1955,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="C54" s="4">
         <v>27</v>
       </c>
       <c r="D54" s="4">
-        <v>5058</v>
+        <v>5085</v>
       </c>
       <c r="E54" s="4">
-        <v>6303</v>
+        <v>6332</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>3868</v>
+        <v>3910</v>
       </c>
       <c r="C55" s="4">
         <v>76</v>
       </c>
       <c r="D55" s="4">
-        <v>3943</v>
+        <v>3969</v>
       </c>
       <c r="E55" s="4">
-        <v>7887</v>
+        <v>7955</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,16 +1989,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2945</v>
+        <v>2959</v>
       </c>
       <c r="C56" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D56" s="4">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E56" s="4">
-        <v>3411</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>3900</v>
+        <v>3919</v>
       </c>
       <c r="C57" s="4">
         <v>580</v>
       </c>
       <c r="D57" s="4">
-        <v>3856</v>
+        <v>3913</v>
       </c>
       <c r="E57" s="4">
-        <v>8336</v>
+        <v>8412</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>4040419</v>
+        <v>4058527</v>
       </c>
       <c r="C58" s="4">
-        <v>168397</v>
+        <v>168620</v>
       </c>
       <c r="D58" s="4">
-        <v>660394</v>
+        <v>666134</v>
       </c>
       <c r="E58" s="4">
-        <v>4869210</v>
+        <v>4893281</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>11981</v>
+        <v>11987</v>
       </c>
       <c r="C59" s="4">
         <v>609</v>
       </c>
       <c r="D59" s="4">
-        <v>6037</v>
+        <v>6067</v>
       </c>
       <c r="E59" s="4">
-        <v>18627</v>
+        <v>18663</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>15981</v>
+        <v>16081</v>
       </c>
       <c r="C60" s="4">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D60" s="4">
-        <v>7942</v>
+        <v>7956</v>
       </c>
       <c r="E60" s="4">
-        <v>24555</v>
+        <v>24670</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>8078</v>
+        <v>8110</v>
       </c>
       <c r="C61" s="4">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="D61" s="4">
-        <v>6626</v>
+        <v>6646</v>
       </c>
       <c r="E61" s="4">
-        <v>15972</v>
+        <v>16026</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>3185</v>
+        <v>3196</v>
       </c>
       <c r="C62" s="4">
         <v>261</v>
       </c>
       <c r="D62" s="4">
-        <v>3113</v>
+        <v>3138</v>
       </c>
       <c r="E62" s="4">
-        <v>6559</v>
+        <v>6595</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>990676</v>
+        <v>995405</v>
       </c>
       <c r="C63" s="4">
-        <v>82257</v>
+        <v>82342</v>
       </c>
       <c r="D63" s="4">
-        <v>273608</v>
+        <v>275712</v>
       </c>
       <c r="E63" s="4">
-        <v>1346541</v>
+        <v>1353459</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,16 +2125,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="C64" s="4">
         <v>22</v>
       </c>
       <c r="D64" s="4">
-        <v>1089</v>
+        <v>1103</v>
       </c>
       <c r="E64" s="4">
-        <v>1996</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>30519</v>
+        <v>30600</v>
       </c>
       <c r="C65" s="4">
         <v>137</v>
       </c>
       <c r="D65" s="4">
-        <v>43322</v>
+        <v>43439</v>
       </c>
       <c r="E65" s="4">
-        <v>73978</v>
+        <v>74176</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>2153</v>
+        <v>2165</v>
       </c>
       <c r="C66" s="4">
         <v>501</v>
       </c>
       <c r="D66" s="4">
-        <v>2350</v>
+        <v>2356</v>
       </c>
       <c r="E66" s="4">
-        <v>5004</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>24461</v>
+        <v>24512</v>
       </c>
       <c r="C67" s="4">
-        <v>3424</v>
+        <v>3432</v>
       </c>
       <c r="D67" s="4">
-        <v>12469</v>
+        <v>12579</v>
       </c>
       <c r="E67" s="4">
-        <v>40354</v>
+        <v>40523</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>7782</v>
+        <v>7804</v>
       </c>
       <c r="C68" s="4">
         <v>524</v>
       </c>
       <c r="D68" s="4">
-        <v>9373</v>
+        <v>9406</v>
       </c>
       <c r="E68" s="4">
-        <v>17679</v>
+        <v>17734</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>97697</v>
+        <v>98167</v>
       </c>
       <c r="C69" s="4">
-        <v>6490</v>
+        <v>6493</v>
       </c>
       <c r="D69" s="4">
-        <v>69237</v>
+        <v>69684</v>
       </c>
       <c r="E69" s="4">
-        <v>173424</v>
+        <v>174344</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C70" s="4">
         <v>43</v>
       </c>
       <c r="D70" s="4">
-        <v>913</v>
+        <v>926</v>
       </c>
       <c r="E70" s="4">
-        <v>2426</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1308104</v>
+        <v>1314904</v>
       </c>
       <c r="C71" s="4">
-        <v>23184</v>
+        <v>23312</v>
       </c>
       <c r="D71" s="4">
-        <v>631752</v>
+        <v>633423</v>
       </c>
       <c r="E71" s="4">
-        <v>1963040</v>
+        <v>1971639</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>264571</v>
+        <v>265186</v>
       </c>
       <c r="C72" s="4">
-        <v>9641</v>
+        <v>9654</v>
       </c>
       <c r="D72" s="4">
-        <v>59210</v>
+        <v>59689</v>
       </c>
       <c r="E72" s="4">
-        <v>333422</v>
+        <v>334529</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>34172</v>
+        <v>34355</v>
       </c>
       <c r="C73" s="4">
-        <v>2097</v>
+        <v>2100</v>
       </c>
       <c r="D73" s="4">
-        <v>14678</v>
+        <v>14810</v>
       </c>
       <c r="E73" s="4">
-        <v>50947</v>
+        <v>51265</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>18810</v>
+        <v>18883</v>
       </c>
       <c r="C74" s="4">
         <v>488</v>
       </c>
       <c r="D74" s="4">
-        <v>10096</v>
+        <v>10143</v>
       </c>
       <c r="E74" s="4">
-        <v>29394</v>
+        <v>29514</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>45437</v>
+        <v>45584</v>
       </c>
       <c r="C75" s="4">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="D75" s="4">
-        <v>12241</v>
+        <v>12383</v>
       </c>
       <c r="E75" s="4">
-        <v>58813</v>
+        <v>59104</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>23932</v>
+        <v>23993</v>
       </c>
       <c r="C76" s="4">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D76" s="4">
-        <v>7886</v>
+        <v>7896</v>
       </c>
       <c r="E76" s="4">
-        <v>32861</v>
+        <v>32933</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="C77" s="4">
         <v>44</v>
       </c>
       <c r="D77" s="4">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="E77" s="4">
-        <v>2625</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>5129</v>
+        <v>5175</v>
       </c>
       <c r="C78" s="4">
         <v>176</v>
       </c>
       <c r="D78" s="4">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="E78" s="4">
-        <v>6198</v>
+        <v>6249</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2380,16 +2380,16 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C79" s="4">
         <v>139</v>
       </c>
       <c r="D79" s="4">
-        <v>1831</v>
+        <v>1842</v>
       </c>
       <c r="E79" s="4">
-        <v>2684</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>1243349</v>
+        <v>1250646</v>
       </c>
       <c r="C80" s="4">
-        <v>51266</v>
+        <v>51320</v>
       </c>
       <c r="D80" s="4">
-        <v>178051</v>
+        <v>179215</v>
       </c>
       <c r="E80" s="4">
-        <v>1472666</v>
+        <v>1481181</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>7398</v>
+        <v>7430</v>
       </c>
       <c r="C81" s="4">
         <v>608</v>
       </c>
       <c r="D81" s="4">
-        <v>1969</v>
+        <v>1985</v>
       </c>
       <c r="E81" s="4">
-        <v>9975</v>
+        <v>10023</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>24629</v>
+        <v>24724</v>
       </c>
       <c r="C82" s="4">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D82" s="4">
-        <v>20905</v>
+        <v>21045</v>
       </c>
       <c r="E82" s="4">
-        <v>46378</v>
+        <v>46614</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>34046</v>
+        <v>34125</v>
       </c>
       <c r="C83" s="4">
         <v>580</v>
       </c>
       <c r="D83" s="4">
-        <v>9955</v>
+        <v>9966</v>
       </c>
       <c r="E83" s="4">
-        <v>44581</v>
+        <v>44671</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>5409</v>
+        <v>5422</v>
       </c>
       <c r="C84" s="4">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D84" s="4">
-        <v>2373</v>
+        <v>2376</v>
       </c>
       <c r="E84" s="4">
-        <v>8088</v>
+        <v>8105</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>653310</v>
+        <v>655962</v>
       </c>
       <c r="C85" s="4">
-        <v>27032</v>
+        <v>27065</v>
       </c>
       <c r="D85" s="4">
-        <v>105949</v>
+        <v>106693</v>
       </c>
       <c r="E85" s="4">
-        <v>786291</v>
+        <v>789720</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>4227</v>
+        <v>4234</v>
       </c>
       <c r="C86" s="4">
         <v>73</v>
       </c>
       <c r="D86" s="4">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="E86" s="4">
-        <v>6160</v>
+        <v>6171</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>22519</v>
+        <v>22606</v>
       </c>
       <c r="C87" s="4">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="D87" s="4">
-        <v>11753</v>
+        <v>11850</v>
       </c>
       <c r="E87" s="4">
-        <v>35323</v>
+        <v>35510</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2539,10 +2539,10 @@
         <v>53</v>
       </c>
       <c r="D88" s="4">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E88" s="4">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>4872</v>
+        <v>4901</v>
       </c>
       <c r="C89" s="4">
         <v>359</v>
       </c>
       <c r="D89" s="4">
-        <v>3891</v>
+        <v>3899</v>
       </c>
       <c r="E89" s="4">
-        <v>9122</v>
+        <v>9159</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>17770</v>
+        <v>17847</v>
       </c>
       <c r="C90" s="4">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D90" s="4">
-        <v>11276</v>
+        <v>11329</v>
       </c>
       <c r="E90" s="4">
-        <v>29572</v>
+        <v>29703</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>13719</v>
+        <v>13771</v>
       </c>
       <c r="C91" s="4">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="D91" s="4">
-        <v>11907</v>
+        <v>11960</v>
       </c>
       <c r="E91" s="4">
-        <v>26974</v>
+        <v>27082</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>175207</v>
+        <v>175813</v>
       </c>
       <c r="C92" s="4">
-        <v>6254</v>
+        <v>6257</v>
       </c>
       <c r="D92" s="4">
-        <v>50984</v>
+        <v>51271</v>
       </c>
       <c r="E92" s="4">
-        <v>232445</v>
+        <v>233341</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>83136</v>
+        <v>83551</v>
       </c>
       <c r="C93" s="4">
-        <v>12273</v>
+        <v>12287</v>
       </c>
       <c r="D93" s="4">
-        <v>47299</v>
+        <v>47653</v>
       </c>
       <c r="E93" s="4">
-        <v>142708</v>
+        <v>143491</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>58534</v>
+        <v>58688</v>
       </c>
       <c r="C94" s="4">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="D94" s="4">
-        <v>14889</v>
+        <v>15031</v>
       </c>
       <c r="E94" s="4">
-        <v>74924</v>
+        <v>75222</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>155481</v>
+        <v>155997</v>
       </c>
       <c r="C95" s="4">
-        <v>6224</v>
+        <v>6233</v>
       </c>
       <c r="D95" s="4">
-        <v>49919</v>
+        <v>50121</v>
       </c>
       <c r="E95" s="4">
-        <v>211624</v>
+        <v>212351</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>32838</v>
+        <v>32938</v>
       </c>
       <c r="C96" s="4">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D96" s="4">
-        <v>8623</v>
+        <v>8691</v>
       </c>
       <c r="E96" s="4">
-        <v>42000</v>
+        <v>42169</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>2394</v>
+        <v>2422</v>
       </c>
       <c r="C97" s="4">
         <v>80</v>
       </c>
       <c r="D97" s="4">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="E97" s="4">
-        <v>5777</v>
+        <v>5806</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>11425</v>
+        <v>11469</v>
       </c>
       <c r="C98" s="4">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D98" s="4">
-        <v>4272</v>
+        <v>4281</v>
       </c>
       <c r="E98" s="4">
-        <v>16168</v>
+        <v>16223</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="C99" s="4">
         <v>844</v>
       </c>
       <c r="D99" s="4">
-        <v>3532</v>
+        <v>3539</v>
       </c>
       <c r="E99" s="4">
-        <v>6394</v>
+        <v>6411</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>2574</v>
+        <v>2581</v>
       </c>
       <c r="C100" s="4">
         <v>322</v>
       </c>
       <c r="D100" s="4">
-        <v>3502</v>
+        <v>3540</v>
       </c>
       <c r="E100" s="4">
-        <v>6398</v>
+        <v>6443</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>43838</v>
+        <v>44102</v>
       </c>
       <c r="C101" s="4">
-        <v>4496</v>
+        <v>4502</v>
       </c>
       <c r="D101" s="4">
-        <v>26626</v>
+        <v>26765</v>
       </c>
       <c r="E101" s="4">
-        <v>74960</v>
+        <v>75369</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>7617841</v>
+        <v>7662778</v>
       </c>
       <c r="C102" s="4">
-        <v>278718</v>
+        <v>278940</v>
       </c>
       <c r="D102" s="4">
-        <v>1131824</v>
+        <v>1137008</v>
       </c>
       <c r="E102" s="4">
-        <v>9028383</v>
+        <v>9078726</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>86159</v>
+        <v>86320</v>
       </c>
       <c r="C103" s="4">
-        <v>9316</v>
+        <v>9321</v>
       </c>
       <c r="D103" s="4">
-        <v>32911</v>
+        <v>33101</v>
       </c>
       <c r="E103" s="4">
-        <v>128386</v>
+        <v>128742</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2828,10 +2828,10 @@
         <v>48</v>
       </c>
       <c r="D105" s="4">
-        <v>3688</v>
+        <v>3692</v>
       </c>
       <c r="E105" s="4">
-        <v>5669</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>466989</v>
+        <v>468570</v>
       </c>
       <c r="C106" s="4">
-        <v>17122</v>
+        <v>17150</v>
       </c>
       <c r="D106" s="4">
-        <v>61743</v>
+        <v>62296</v>
       </c>
       <c r="E106" s="4">
-        <v>545854</v>
+        <v>548016</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2856,7 +2856,7 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>1321</v>
+        <v>1338</v>
       </c>
       <c r="C107" s="4">
         <v>501</v>
@@ -2865,7 +2865,7 @@
         <v>550</v>
       </c>
       <c r="E107" s="4">
-        <v>2372</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>49758</v>
+        <v>49973</v>
       </c>
       <c r="C108" s="4">
-        <v>3286</v>
+        <v>3288</v>
       </c>
       <c r="D108" s="4">
-        <v>29568</v>
+        <v>29626</v>
       </c>
       <c r="E108" s="4">
-        <v>82612</v>
+        <v>82887</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>842547</v>
+        <v>846055</v>
       </c>
       <c r="C109" s="4">
-        <v>21735</v>
+        <v>21768</v>
       </c>
       <c r="D109" s="4">
-        <v>413032</v>
+        <v>413949</v>
       </c>
       <c r="E109" s="4">
-        <v>1277314</v>
+        <v>1281772</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>42631</v>
+        <v>42803</v>
       </c>
       <c r="C110" s="4">
         <v>1302</v>
       </c>
       <c r="D110" s="4">
-        <v>19343</v>
+        <v>19400</v>
       </c>
       <c r="E110" s="4">
-        <v>63276</v>
+        <v>63505</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>18887</v>
+        <v>19017</v>
       </c>
       <c r="C111" s="4">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D111" s="4">
-        <v>7081</v>
+        <v>7117</v>
       </c>
       <c r="E111" s="4">
-        <v>26228</v>
+        <v>26395</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>57046</v>
+        <v>57387</v>
       </c>
       <c r="C112" s="4">
-        <v>3289</v>
+        <v>3296</v>
       </c>
       <c r="D112" s="4">
-        <v>45544</v>
+        <v>45750</v>
       </c>
       <c r="E112" s="4">
-        <v>105879</v>
+        <v>106433</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>28134</v>
+        <v>28229</v>
       </c>
       <c r="C113" s="4">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="D113" s="4">
-        <v>15045</v>
+        <v>15108</v>
       </c>
       <c r="E113" s="4">
-        <v>45327</v>
+        <v>45487</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>21416</v>
+        <v>21447</v>
       </c>
       <c r="C114" s="4">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D114" s="4">
-        <v>11633</v>
+        <v>11702</v>
       </c>
       <c r="E114" s="4">
-        <v>33748</v>
+        <v>33850</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>23181</v>
+        <v>23193</v>
       </c>
       <c r="C115" s="4">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D115" s="4">
-        <v>19063</v>
+        <v>19460</v>
       </c>
       <c r="E115" s="4">
-        <v>43184</v>
+        <v>43594</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>3426</v>
+        <v>3440</v>
       </c>
       <c r="C116" s="4">
         <v>52</v>
       </c>
       <c r="D116" s="4">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="E116" s="4">
-        <v>5251</v>
+        <v>5268</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>134610</v>
+        <v>135230</v>
       </c>
       <c r="C117" s="4">
         <v>5209</v>
       </c>
       <c r="D117" s="4">
-        <v>49130</v>
+        <v>49485</v>
       </c>
       <c r="E117" s="4">
-        <v>188949</v>
+        <v>189924</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>13611</v>
+        <v>13695</v>
       </c>
       <c r="C118" s="4">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="D118" s="4">
-        <v>10650</v>
+        <v>10670</v>
       </c>
       <c r="E118" s="4">
-        <v>26109</v>
+        <v>26214</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C119" s="4">
         <v>26</v>
       </c>
       <c r="D119" s="4">
-        <v>898</v>
+        <v>908</v>
       </c>
       <c r="E119" s="4">
-        <v>1468</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>5142</v>
+        <v>5164</v>
       </c>
       <c r="C120" s="4">
         <v>281</v>
       </c>
       <c r="D120" s="4">
-        <v>1978</v>
+        <v>1989</v>
       </c>
       <c r="E120" s="4">
-        <v>7401</v>
+        <v>7434</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>11219</v>
+        <v>11263</v>
       </c>
       <c r="C121" s="4">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D121" s="4">
-        <v>6009</v>
+        <v>6018</v>
       </c>
       <c r="E121" s="4">
-        <v>17780</v>
+        <v>17836</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>28660</v>
+        <v>28815</v>
       </c>
       <c r="C122" s="4">
-        <v>3127</v>
+        <v>3131</v>
       </c>
       <c r="D122" s="4">
-        <v>16280</v>
+        <v>16308</v>
       </c>
       <c r="E122" s="4">
-        <v>48067</v>
+        <v>48254</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C123" s="4">
         <v>58</v>
       </c>
       <c r="D123" s="4">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E123" s="4">
-        <v>2452</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>243269</v>
+        <v>243814</v>
       </c>
       <c r="C124" s="4">
-        <v>16502</v>
+        <v>16512</v>
       </c>
       <c r="D124" s="4">
-        <v>106035</v>
+        <v>106376</v>
       </c>
       <c r="E124" s="4">
-        <v>365806</v>
+        <v>366702</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>15080</v>
+        <v>15091</v>
       </c>
       <c r="C125" s="4">
         <v>768</v>
       </c>
       <c r="D125" s="4">
-        <v>15514</v>
+        <v>15706</v>
       </c>
       <c r="E125" s="4">
-        <v>31362</v>
+        <v>31565</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>79838</v>
+        <v>80348</v>
       </c>
       <c r="C126" s="4">
-        <v>11101</v>
+        <v>11115</v>
       </c>
       <c r="D126" s="4">
-        <v>36023</v>
+        <v>36300</v>
       </c>
       <c r="E126" s="4">
-        <v>126962</v>
+        <v>127763</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>201252</v>
+        <v>202188</v>
       </c>
       <c r="C127" s="4">
-        <v>9270</v>
+        <v>9277</v>
       </c>
       <c r="D127" s="4">
-        <v>51749</v>
+        <v>52111</v>
       </c>
       <c r="E127" s="4">
-        <v>262271</v>
+        <v>263576</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>11224</v>
+        <v>11250</v>
       </c>
       <c r="C128" s="4">
         <v>245</v>
       </c>
       <c r="D128" s="4">
-        <v>9519</v>
+        <v>9554</v>
       </c>
       <c r="E128" s="4">
-        <v>20988</v>
+        <v>21049</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>22226</v>
+        <v>22277</v>
       </c>
       <c r="C129" s="4">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D129" s="4">
-        <v>13398</v>
+        <v>13517</v>
       </c>
       <c r="E129" s="4">
-        <v>36209</v>
+        <v>36382</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>180108</v>
+        <v>181068</v>
       </c>
       <c r="C130" s="4">
-        <v>7273</v>
+        <v>7285</v>
       </c>
       <c r="D130" s="4">
-        <v>55516</v>
+        <v>55833</v>
       </c>
       <c r="E130" s="4">
-        <v>242897</v>
+        <v>244186</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>44320</v>
+        <v>44457</v>
       </c>
       <c r="C131" s="4">
-        <v>2917</v>
+        <v>2925</v>
       </c>
       <c r="D131" s="4">
-        <v>22723</v>
+        <v>22819</v>
       </c>
       <c r="E131" s="4">
-        <v>69960</v>
+        <v>70201</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3281,7 +3281,7 @@
         <v>135</v>
       </c>
       <c r="B132" s="4">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C132" s="4">
         <v>52</v>
@@ -3290,7 +3290,7 @@
         <v>112</v>
       </c>
       <c r="E132" s="4">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3298,16 +3298,16 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C133" s="4">
         <v>0</v>
       </c>
       <c r="D133" s="4">
-        <v>1764</v>
+        <v>1770</v>
       </c>
       <c r="E133" s="4">
-        <v>2081</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>47287</v>
+        <v>47484</v>
       </c>
       <c r="C134" s="4">
-        <v>2054</v>
+        <v>2058</v>
       </c>
       <c r="D134" s="4">
-        <v>46912</v>
+        <v>47536</v>
       </c>
       <c r="E134" s="4">
-        <v>96253</v>
+        <v>97078</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>2317</v>
+        <v>2325</v>
       </c>
       <c r="C135" s="4">
         <v>72</v>
       </c>
       <c r="D135" s="4">
-        <v>1444</v>
+        <v>1451</v>
       </c>
       <c r="E135" s="4">
-        <v>3833</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,16 +3366,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>3349</v>
+        <v>3367</v>
       </c>
       <c r="C137" s="4">
         <v>58</v>
       </c>
       <c r="D137" s="4">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E137" s="4">
-        <v>4220</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>40544</v>
+        <v>40741</v>
       </c>
       <c r="C138" s="4">
-        <v>5501</v>
+        <v>5503</v>
       </c>
       <c r="D138" s="4">
-        <v>18219</v>
+        <v>18305</v>
       </c>
       <c r="E138" s="4">
-        <v>64264</v>
+        <v>64549</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3400,16 +3400,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="C139" s="4">
         <v>61</v>
       </c>
       <c r="D139" s="4">
-        <v>6434</v>
+        <v>6441</v>
       </c>
       <c r="E139" s="4">
-        <v>7684</v>
+        <v>7694</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>12832</v>
+        <v>12904</v>
       </c>
       <c r="C140" s="4">
         <v>327</v>
       </c>
       <c r="D140" s="4">
-        <v>5648</v>
+        <v>5674</v>
       </c>
       <c r="E140" s="4">
-        <v>18807</v>
+        <v>18905</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>31720</v>
+        <v>31783</v>
       </c>
       <c r="C141" s="4">
-        <v>2990</v>
+        <v>2993</v>
       </c>
       <c r="D141" s="4">
-        <v>20990</v>
+        <v>21085</v>
       </c>
       <c r="E141" s="4">
-        <v>55700</v>
+        <v>55861</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>9336</v>
+        <v>9362</v>
       </c>
       <c r="C142" s="4">
         <v>183</v>
       </c>
       <c r="D142" s="4">
-        <v>10204</v>
+        <v>10223</v>
       </c>
       <c r="E142" s="4">
-        <v>19723</v>
+        <v>19768</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>30040</v>
+        <v>30071</v>
       </c>
       <c r="C143" s="4">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D143" s="4">
-        <v>8334</v>
+        <v>8374</v>
       </c>
       <c r="E143" s="4">
-        <v>39163</v>
+        <v>39236</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>19105</v>
+        <v>19169</v>
       </c>
       <c r="C144" s="4">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="D144" s="4">
-        <v>15129</v>
+        <v>15183</v>
       </c>
       <c r="E144" s="4">
-        <v>35584</v>
+        <v>35705</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>13464</v>
+        <v>13504</v>
       </c>
       <c r="C145" s="4">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D145" s="4">
-        <v>6885</v>
+        <v>6913</v>
       </c>
       <c r="E145" s="4">
-        <v>20821</v>
+        <v>20891</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>17151</v>
+        <v>17196</v>
       </c>
       <c r="C146" s="4">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D146" s="4">
-        <v>7526</v>
+        <v>7564</v>
       </c>
       <c r="E146" s="4">
-        <v>25529</v>
+        <v>25614</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>93856</v>
+        <v>94114</v>
       </c>
       <c r="C147" s="4">
-        <v>4734</v>
+        <v>4755</v>
       </c>
       <c r="D147" s="4">
-        <v>26185</v>
+        <v>26275</v>
       </c>
       <c r="E147" s="4">
-        <v>124775</v>
+        <v>125144</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>40211</v>
+        <v>40390</v>
       </c>
       <c r="C148" s="4">
         <v>787</v>
       </c>
       <c r="D148" s="4">
-        <v>37307</v>
+        <v>37704</v>
       </c>
       <c r="E148" s="4">
-        <v>78305</v>
+        <v>78881</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3570,7 +3570,7 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C149" s="4">
         <v>299</v>
@@ -3579,7 +3579,7 @@
         <v>810</v>
       </c>
       <c r="E149" s="4">
-        <v>1675</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>9474</v>
+        <v>9492</v>
       </c>
       <c r="C150" s="4">
         <v>1340</v>
       </c>
       <c r="D150" s="4">
-        <v>7078</v>
+        <v>7089</v>
       </c>
       <c r="E150" s="4">
-        <v>17892</v>
+        <v>17921</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>19127</v>
+        <v>19165</v>
       </c>
       <c r="C151" s="4">
         <v>644</v>
       </c>
       <c r="D151" s="4">
-        <v>5121</v>
+        <v>5144</v>
       </c>
       <c r="E151" s="4">
-        <v>24892</v>
+        <v>24953</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>351763</v>
+        <v>353764</v>
       </c>
       <c r="C153" s="4">
-        <v>12160</v>
+        <v>12185</v>
       </c>
       <c r="D153" s="4">
-        <v>177051</v>
+        <v>178494</v>
       </c>
       <c r="E153" s="4">
-        <v>540974</v>
+        <v>544443</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>4402</v>
+        <v>4424</v>
       </c>
       <c r="C154" s="4">
         <v>181</v>
       </c>
       <c r="D154" s="4">
-        <v>4162</v>
+        <v>4184</v>
       </c>
       <c r="E154" s="4">
-        <v>8745</v>
+        <v>8789</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>20058</v>
+        <v>20094</v>
       </c>
       <c r="C155" s="4">
         <v>412</v>
       </c>
       <c r="D155" s="4">
-        <v>6862</v>
+        <v>6956</v>
       </c>
       <c r="E155" s="4">
-        <v>27332</v>
+        <v>27462</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>4157</v>
+        <v>4182</v>
       </c>
       <c r="C156" s="4">
         <v>868</v>
       </c>
       <c r="D156" s="4">
-        <v>3816</v>
+        <v>3827</v>
       </c>
       <c r="E156" s="4">
-        <v>8841</v>
+        <v>8877</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="C157" s="4">
         <v>272</v>
       </c>
       <c r="D157" s="4">
-        <v>1438</v>
+        <v>1445</v>
       </c>
       <c r="E157" s="4">
-        <v>3582</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>2582</v>
+        <v>2587</v>
       </c>
       <c r="C158" s="4">
         <v>120</v>
       </c>
       <c r="D158" s="4">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="E158" s="4">
-        <v>4663</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>50082</v>
+        <v>50221</v>
       </c>
       <c r="C159" s="4">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="D159" s="4">
-        <v>8029</v>
+        <v>8151</v>
       </c>
       <c r="E159" s="4">
-        <v>60103</v>
+        <v>60365</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>93883</v>
+        <v>94363</v>
       </c>
       <c r="C160" s="4">
         <v>521</v>
       </c>
       <c r="D160" s="4">
-        <v>27660</v>
+        <v>27736</v>
       </c>
       <c r="E160" s="4">
-        <v>122064</v>
+        <v>122620</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>3794</v>
+        <v>3806</v>
       </c>
       <c r="C161" s="4">
         <v>94</v>
       </c>
       <c r="D161" s="4">
-        <v>4284</v>
+        <v>4290</v>
       </c>
       <c r="E161" s="4">
-        <v>8172</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>426477</v>
+        <v>427946</v>
       </c>
       <c r="C162" s="4">
-        <v>13293</v>
+        <v>13301</v>
       </c>
       <c r="D162" s="4">
-        <v>154921</v>
+        <v>155766</v>
       </c>
       <c r="E162" s="4">
-        <v>594691</v>
+        <v>597013</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3808,7 +3808,7 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C163" s="4">
         <v>63</v>
@@ -3817,7 +3817,7 @@
         <v>168</v>
       </c>
       <c r="E163" s="4">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>51362</v>
+        <v>51598</v>
       </c>
       <c r="C164" s="4">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="D164" s="4">
-        <v>15877</v>
+        <v>15920</v>
       </c>
       <c r="E164" s="4">
-        <v>68957</v>
+        <v>69237</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,7 +3842,7 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="C165" s="4">
         <v>29</v>
@@ -3851,7 +3851,7 @@
         <v>2378</v>
       </c>
       <c r="E165" s="4">
-        <v>4862</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>84317</v>
+        <v>84610</v>
       </c>
       <c r="C166" s="4">
-        <v>11370</v>
+        <v>11447</v>
       </c>
       <c r="D166" s="4">
-        <v>86792</v>
+        <v>87064</v>
       </c>
       <c r="E166" s="4">
-        <v>182479</v>
+        <v>183121</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>26092</v>
+        <v>26224</v>
       </c>
       <c r="C167" s="4">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="D167" s="4">
-        <v>14270</v>
+        <v>14294</v>
       </c>
       <c r="E167" s="4">
-        <v>41696</v>
+        <v>41854</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>8860</v>
+        <v>8884</v>
       </c>
       <c r="C168" s="4">
         <v>137</v>
       </c>
       <c r="D168" s="4">
-        <v>2861</v>
+        <v>2864</v>
       </c>
       <c r="E168" s="4">
-        <v>11858</v>
+        <v>11885</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>8964</v>
+        <v>8974</v>
       </c>
       <c r="C169" s="4">
         <v>84</v>
       </c>
       <c r="D169" s="4">
-        <v>7226</v>
+        <v>7324</v>
       </c>
       <c r="E169" s="4">
-        <v>16274</v>
+        <v>16382</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>18898</v>
+        <v>19020</v>
       </c>
       <c r="C170" s="4">
         <v>1305</v>
       </c>
       <c r="D170" s="4">
-        <v>9943</v>
+        <v>9966</v>
       </c>
       <c r="E170" s="4">
-        <v>30146</v>
+        <v>30291</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>721274</v>
+        <v>724236</v>
       </c>
       <c r="C171" s="4">
-        <v>48359</v>
+        <v>48419</v>
       </c>
       <c r="D171" s="4">
-        <v>155991</v>
+        <v>156727</v>
       </c>
       <c r="E171" s="4">
-        <v>925624</v>
+        <v>929382</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>11155</v>
+        <v>11180</v>
       </c>
       <c r="C172" s="4">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D172" s="4">
-        <v>6850</v>
+        <v>6906</v>
       </c>
       <c r="E172" s="4">
-        <v>19253</v>
+        <v>19335</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>9577</v>
+        <v>9618</v>
       </c>
       <c r="C173" s="4">
         <v>820</v>
       </c>
       <c r="D173" s="4">
-        <v>8701</v>
+        <v>8748</v>
       </c>
       <c r="E173" s="4">
-        <v>19098</v>
+        <v>19186</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3995,16 +3995,16 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C174" s="4">
         <v>17</v>
       </c>
       <c r="D174" s="4">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E174" s="4">
-        <v>1303</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>65680</v>
+        <v>65919</v>
       </c>
       <c r="C175" s="4">
-        <v>4387</v>
+        <v>4398</v>
       </c>
       <c r="D175" s="4">
-        <v>22430</v>
+        <v>22524</v>
       </c>
       <c r="E175" s="4">
-        <v>92497</v>
+        <v>92841</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>41544</v>
+        <v>41689</v>
       </c>
       <c r="C176" s="4">
-        <v>2059</v>
+        <v>2064</v>
       </c>
       <c r="D176" s="4">
-        <v>33905</v>
+        <v>34064</v>
       </c>
       <c r="E176" s="4">
-        <v>77508</v>
+        <v>77817</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>7218</v>
+        <v>7257</v>
       </c>
       <c r="C177" s="4">
         <v>932</v>
       </c>
       <c r="D177" s="4">
-        <v>5571</v>
+        <v>5575</v>
       </c>
       <c r="E177" s="4">
-        <v>13721</v>
+        <v>13764</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>10219</v>
+        <v>10230</v>
       </c>
       <c r="C178" s="4">
         <v>234</v>
       </c>
       <c r="D178" s="4">
-        <v>8064</v>
+        <v>8095</v>
       </c>
       <c r="E178" s="4">
-        <v>18517</v>
+        <v>18559</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>367502</v>
+        <v>369078</v>
       </c>
       <c r="C179" s="4">
-        <v>53123</v>
+        <v>53146</v>
       </c>
       <c r="D179" s="4">
-        <v>177068</v>
+        <v>178136</v>
       </c>
       <c r="E179" s="4">
-        <v>597693</v>
+        <v>600360</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>1637</v>
+        <v>1659</v>
       </c>
       <c r="C180" s="4">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D180" s="4">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="E180" s="4">
-        <v>3409</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4114,16 +4114,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="C181" s="4">
         <v>415</v>
       </c>
       <c r="D181" s="4">
-        <v>1332</v>
+        <v>1337</v>
       </c>
       <c r="E181" s="4">
-        <v>2907</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>54956</v>
+        <v>55217</v>
       </c>
       <c r="C182" s="4">
-        <v>7159</v>
+        <v>7166</v>
       </c>
       <c r="D182" s="4">
-        <v>30880</v>
+        <v>31105</v>
       </c>
       <c r="E182" s="4">
-        <v>92995</v>
+        <v>93488</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>25553</v>
+        <v>25706</v>
       </c>
       <c r="C183" s="4">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D183" s="4">
-        <v>13462</v>
+        <v>13471</v>
       </c>
       <c r="E183" s="4">
-        <v>40136</v>
+        <v>40299</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>14921</v>
+        <v>14968</v>
       </c>
       <c r="C184" s="4">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="D184" s="4">
-        <v>9800</v>
+        <v>9813</v>
       </c>
       <c r="E184" s="4">
-        <v>26059</v>
+        <v>26123</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>138630</v>
+        <v>139181</v>
       </c>
       <c r="C185" s="4">
-        <v>7929</v>
+        <v>7937</v>
       </c>
       <c r="D185" s="4">
-        <v>42109</v>
+        <v>42271</v>
       </c>
       <c r="E185" s="4">
-        <v>188668</v>
+        <v>189389</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>3342</v>
+        <v>3352</v>
       </c>
       <c r="C186" s="4">
         <v>381</v>
       </c>
       <c r="D186" s="4">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="E186" s="4">
-        <v>7526</v>
+        <v>7564</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>14972</v>
+        <v>14982</v>
       </c>
       <c r="C187" s="4">
         <v>164</v>
       </c>
       <c r="D187" s="4">
-        <v>4840</v>
+        <v>4861</v>
       </c>
       <c r="E187" s="4">
-        <v>19976</v>
+        <v>20007</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>57585</v>
+        <v>57800</v>
       </c>
       <c r="C188" s="4">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="D188" s="4">
-        <v>22665</v>
+        <v>22773</v>
       </c>
       <c r="E188" s="4">
-        <v>83186</v>
+        <v>83510</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>118543</v>
+        <v>118857</v>
       </c>
       <c r="C189" s="4">
-        <v>10065</v>
+        <v>10081</v>
       </c>
       <c r="D189" s="4">
-        <v>48221</v>
+        <v>48433</v>
       </c>
       <c r="E189" s="4">
-        <v>176829</v>
+        <v>177371</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7990</v>
+        <v>7993</v>
       </c>
       <c r="C190" s="4">
         <v>62</v>
       </c>
       <c r="D190" s="4">
-        <v>2400</v>
+        <v>2402</v>
       </c>
       <c r="E190" s="4">
-        <v>10452</v>
+        <v>10457</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>5876</v>
+        <v>5901</v>
       </c>
       <c r="C191" s="4">
         <v>496</v>
       </c>
       <c r="D191" s="4">
-        <v>3670</v>
+        <v>3680</v>
       </c>
       <c r="E191" s="4">
-        <v>10042</v>
+        <v>10077</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>87515</v>
+        <v>87879</v>
       </c>
       <c r="C192" s="4">
-        <v>20596</v>
+        <v>20619</v>
       </c>
       <c r="D192" s="4">
-        <v>43503</v>
+        <v>43728</v>
       </c>
       <c r="E192" s="4">
-        <v>151614</v>
+        <v>152226</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4318,16 +4318,16 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="C193" s="4">
         <v>47</v>
       </c>
       <c r="D193" s="4">
-        <v>1220</v>
+        <v>1254</v>
       </c>
       <c r="E193" s="4">
-        <v>2489</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>2748</v>
+        <v>2767</v>
       </c>
       <c r="C194" s="4">
         <v>130</v>
       </c>
       <c r="D194" s="4">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="E194" s="4">
-        <v>4599</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>8568</v>
+        <v>8589</v>
       </c>
       <c r="C195" s="4">
         <v>757</v>
       </c>
       <c r="D195" s="4">
-        <v>9054</v>
+        <v>9077</v>
       </c>
       <c r="E195" s="4">
-        <v>18379</v>
+        <v>18423</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>13087</v>
+        <v>13371</v>
       </c>
       <c r="C196" s="4">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D196" s="4">
-        <v>96444</v>
+        <v>96459</v>
       </c>
       <c r="E196" s="4">
-        <v>110061</v>
+        <v>110364</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>6124</v>
+        <v>6156</v>
       </c>
       <c r="C197" s="4">
         <v>513</v>
       </c>
       <c r="D197" s="4">
-        <v>8326</v>
+        <v>8335</v>
       </c>
       <c r="E197" s="4">
-        <v>14963</v>
+        <v>15004</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4409,10 +4409,10 @@
         <v>125</v>
       </c>
       <c r="D198" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E198" s="4">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>19658</v>
+        <v>19788</v>
       </c>
       <c r="C199" s="4">
         <v>570</v>
       </c>
       <c r="D199" s="4">
-        <v>13817</v>
+        <v>13923</v>
       </c>
       <c r="E199" s="4">
-        <v>34045</v>
+        <v>34281</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>116750</v>
+        <v>117154</v>
       </c>
       <c r="C200" s="4">
-        <v>8116</v>
+        <v>8127</v>
       </c>
       <c r="D200" s="4">
-        <v>22031</v>
+        <v>22235</v>
       </c>
       <c r="E200" s="4">
-        <v>146897</v>
+        <v>147516</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>8189</v>
+        <v>8267</v>
       </c>
       <c r="C201" s="4">
         <v>245</v>
       </c>
       <c r="D201" s="4">
-        <v>8028</v>
+        <v>8063</v>
       </c>
       <c r="E201" s="4">
-        <v>16462</v>
+        <v>16575</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>36307</v>
+        <v>36413</v>
       </c>
       <c r="C202" s="4">
         <v>2506</v>
       </c>
       <c r="D202" s="4">
-        <v>10651</v>
+        <v>10696</v>
       </c>
       <c r="E202" s="4">
-        <v>49464</v>
+        <v>49615</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>10951</v>
+        <v>11017</v>
       </c>
       <c r="C203" s="4">
         <v>756</v>
       </c>
       <c r="D203" s="4">
-        <v>5135</v>
+        <v>5144</v>
       </c>
       <c r="E203" s="4">
-        <v>16842</v>
+        <v>16917</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>10315</v>
+        <v>10397</v>
       </c>
       <c r="C204" s="4">
         <v>293</v>
       </c>
       <c r="D204" s="4">
-        <v>9147</v>
+        <v>9155</v>
       </c>
       <c r="E204" s="4">
-        <v>19755</v>
+        <v>19845</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>32274</v>
+        <v>32391</v>
       </c>
       <c r="C205" s="4">
-        <v>2497</v>
+        <v>2503</v>
       </c>
       <c r="D205" s="4">
-        <v>10835</v>
+        <v>10879</v>
       </c>
       <c r="E205" s="4">
-        <v>45606</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>55794</v>
+        <v>56137</v>
       </c>
       <c r="C206" s="4">
-        <v>9977</v>
+        <v>9982</v>
       </c>
       <c r="D206" s="4">
-        <v>45250</v>
+        <v>45419</v>
       </c>
       <c r="E206" s="4">
-        <v>111021</v>
+        <v>111538</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>5595</v>
+        <v>5613</v>
       </c>
       <c r="C207" s="4">
         <v>135</v>
       </c>
       <c r="D207" s="4">
-        <v>4187</v>
+        <v>4238</v>
       </c>
       <c r="E207" s="4">
-        <v>9917</v>
+        <v>9986</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,16 +4573,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="C208" s="4">
         <v>25</v>
       </c>
       <c r="D208" s="4">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="E208" s="4">
-        <v>2210</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>29651</v>
+        <v>29808</v>
       </c>
       <c r="C209" s="4">
         <v>350</v>
       </c>
       <c r="D209" s="4">
-        <v>4676</v>
+        <v>4700</v>
       </c>
       <c r="E209" s="4">
-        <v>34677</v>
+        <v>34858</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C210" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D210" s="4">
-        <v>1437</v>
+        <v>1447</v>
       </c>
       <c r="E210" s="4">
-        <v>2639</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>22144</v>
+        <v>22201</v>
       </c>
       <c r="C211" s="4">
         <v>1448</v>
       </c>
       <c r="D211" s="4">
-        <v>10235</v>
+        <v>10246</v>
       </c>
       <c r="E211" s="4">
-        <v>33827</v>
+        <v>33895</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4641,7 +4641,7 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C212" s="4">
         <v>177</v>
@@ -4650,7 +4650,7 @@
         <v>237</v>
       </c>
       <c r="E212" s="4">
-        <v>736</v>
+        <v>740</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>296359</v>
+        <v>297037</v>
       </c>
       <c r="C213" s="4">
-        <v>15025</v>
+        <v>15064</v>
       </c>
       <c r="D213" s="4">
-        <v>102791</v>
+        <v>103190</v>
       </c>
       <c r="E213" s="4">
-        <v>414175</v>
+        <v>415291</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>8994</v>
+        <v>9050</v>
       </c>
       <c r="C214" s="4">
         <v>449</v>
       </c>
       <c r="D214" s="4">
-        <v>8575</v>
+        <v>8605</v>
       </c>
       <c r="E214" s="4">
-        <v>18018</v>
+        <v>18104</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>82205</v>
+        <v>82482</v>
       </c>
       <c r="C215" s="4">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D215" s="4">
-        <v>37401</v>
+        <v>37472</v>
       </c>
       <c r="E215" s="4">
-        <v>120499</v>
+        <v>120849</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>6163</v>
+        <v>6179</v>
       </c>
       <c r="C216" s="4">
         <v>168</v>
       </c>
       <c r="D216" s="4">
-        <v>7465</v>
+        <v>7555</v>
       </c>
       <c r="E216" s="4">
-        <v>13796</v>
+        <v>13902</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4729,13 +4729,13 @@
         <v>722</v>
       </c>
       <c r="C217" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D217" s="4">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="E217" s="4">
-        <v>1805</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4743,16 +4743,16 @@
         <v>221</v>
       </c>
       <c r="B218" s="4">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C218" s="4">
         <v>10</v>
       </c>
       <c r="D218" s="4">
-        <v>1551</v>
+        <v>1568</v>
       </c>
       <c r="E218" s="4">
-        <v>1752</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4760,16 +4760,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1526</v>
+        <v>1535</v>
       </c>
       <c r="C219" s="4">
         <v>47</v>
       </c>
       <c r="D219" s="4">
-        <v>1394</v>
+        <v>1405</v>
       </c>
       <c r="E219" s="4">
-        <v>2967</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>8589</v>
+        <v>8598</v>
       </c>
       <c r="C220" s="4">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D220" s="4">
-        <v>2449</v>
+        <v>2454</v>
       </c>
       <c r="E220" s="4">
-        <v>11500</v>
+        <v>11515</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>2862933</v>
+        <v>2874557</v>
       </c>
       <c r="C221" s="4">
-        <v>117378</v>
+        <v>117477</v>
       </c>
       <c r="D221" s="4">
-        <v>630083</v>
+        <v>633076</v>
       </c>
       <c r="E221" s="4">
-        <v>3610394</v>
+        <v>3625110</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>118485</v>
+        <v>118752</v>
       </c>
       <c r="C222" s="4">
-        <v>4633</v>
+        <v>4642</v>
       </c>
       <c r="D222" s="4">
-        <v>152512</v>
+        <v>153322</v>
       </c>
       <c r="E222" s="4">
-        <v>275630</v>
+        <v>276716</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4834,10 +4834,10 @@
         <v>12</v>
       </c>
       <c r="D223" s="4">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E223" s="4">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>6067</v>
+        <v>6083</v>
       </c>
       <c r="C224" s="4">
         <v>138</v>
       </c>
       <c r="D224" s="4">
-        <v>4178</v>
+        <v>4187</v>
       </c>
       <c r="E224" s="4">
-        <v>10383</v>
+        <v>10408</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4862,16 +4862,16 @@
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C225" s="4">
         <v>56</v>
       </c>
       <c r="D225" s="4">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E225" s="4">
-        <v>1421</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>34482</v>
+        <v>34698</v>
       </c>
       <c r="C226" s="4">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="D226" s="4">
-        <v>9852</v>
+        <v>9942</v>
       </c>
       <c r="E226" s="4">
-        <v>45798</v>
+        <v>46108</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>102203</v>
+        <v>102503</v>
       </c>
       <c r="C227" s="4">
-        <v>3240</v>
+        <v>3258</v>
       </c>
       <c r="D227" s="4">
-        <v>136756</v>
+        <v>137873</v>
       </c>
       <c r="E227" s="4">
-        <v>242199</v>
+        <v>243634</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>1957379</v>
+        <v>1965395</v>
       </c>
       <c r="C228" s="4">
-        <v>84454</v>
+        <v>84669</v>
       </c>
       <c r="D228" s="4">
-        <v>465310</v>
+        <v>469787</v>
       </c>
       <c r="E228" s="4">
-        <v>2507143</v>
+        <v>2519851</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>18570</v>
+        <v>18627</v>
       </c>
       <c r="C229" s="4">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D229" s="4">
-        <v>8767</v>
+        <v>8776</v>
       </c>
       <c r="E229" s="4">
-        <v>27960</v>
+        <v>28028</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>16874</v>
+        <v>16932</v>
       </c>
       <c r="C230" s="4">
         <v>1119</v>
       </c>
       <c r="D230" s="4">
-        <v>11269</v>
+        <v>11304</v>
       </c>
       <c r="E230" s="4">
-        <v>29262</v>
+        <v>29355</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>16622</v>
+        <v>16661</v>
       </c>
       <c r="C231" s="4">
         <v>2550</v>
       </c>
       <c r="D231" s="4">
-        <v>10088</v>
+        <v>10135</v>
       </c>
       <c r="E231" s="4">
-        <v>29260</v>
+        <v>29346</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="C232" s="4">
         <v>102</v>
       </c>
       <c r="D232" s="4">
-        <v>4231</v>
+        <v>4240</v>
       </c>
       <c r="E232" s="4">
-        <v>5611</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>43282</v>
+        <v>43742</v>
       </c>
       <c r="C233" s="4">
         <v>614</v>
       </c>
       <c r="D233" s="4">
-        <v>5086</v>
+        <v>5101</v>
       </c>
       <c r="E233" s="4">
-        <v>48982</v>
+        <v>49457</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>67071</v>
+        <v>67354</v>
       </c>
       <c r="C234" s="4">
         <v>1356</v>
       </c>
       <c r="D234" s="4">
-        <v>35155</v>
+        <v>35288</v>
       </c>
       <c r="E234" s="4">
-        <v>103582</v>
+        <v>103998</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>34073</v>
+        <v>34193</v>
       </c>
       <c r="C235" s="4">
         <v>2446</v>
       </c>
       <c r="D235" s="4">
-        <v>22581</v>
+        <v>22672</v>
       </c>
       <c r="E235" s="4">
-        <v>59100</v>
+        <v>59311</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>75406</v>
+        <v>75837</v>
       </c>
       <c r="C236" s="4">
-        <v>5473</v>
+        <v>5493</v>
       </c>
       <c r="D236" s="4">
-        <v>34288</v>
+        <v>34396</v>
       </c>
       <c r="E236" s="4">
-        <v>115167</v>
+        <v>115726</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>173679</v>
+        <v>174137</v>
       </c>
       <c r="C237" s="4">
-        <v>3317</v>
+        <v>3319</v>
       </c>
       <c r="D237" s="4">
-        <v>49526</v>
+        <v>49729</v>
       </c>
       <c r="E237" s="4">
-        <v>226522</v>
+        <v>227185</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>63090</v>
+        <v>63495</v>
       </c>
       <c r="C238" s="4">
-        <v>2376</v>
+        <v>2379</v>
       </c>
       <c r="D238" s="4">
-        <v>12258</v>
+        <v>12333</v>
       </c>
       <c r="E238" s="4">
-        <v>77724</v>
+        <v>78207</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>5992</v>
+        <v>6037</v>
       </c>
       <c r="C239" s="4">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D239" s="4">
-        <v>2540</v>
+        <v>2545</v>
       </c>
       <c r="E239" s="4">
-        <v>8767</v>
+        <v>8819</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>57287</v>
+        <v>57501</v>
       </c>
       <c r="C240" s="4">
         <v>2079</v>
       </c>
       <c r="D240" s="4">
-        <v>28991</v>
+        <v>29165</v>
       </c>
       <c r="E240" s="4">
-        <v>88357</v>
+        <v>88745</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>552117</v>
+        <v>554156</v>
       </c>
       <c r="C241" s="4">
-        <v>7152</v>
+        <v>7158</v>
       </c>
       <c r="D241" s="4">
-        <v>148129</v>
+        <v>149412</v>
       </c>
       <c r="E241" s="4">
-        <v>707398</v>
+        <v>710726</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>50402</v>
+        <v>50577</v>
       </c>
       <c r="C242" s="4">
-        <v>2613</v>
+        <v>2616</v>
       </c>
       <c r="D242" s="4">
-        <v>14058</v>
+        <v>14123</v>
       </c>
       <c r="E242" s="4">
-        <v>67073</v>
+        <v>67316</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>2588</v>
+        <v>2601</v>
       </c>
       <c r="C243" s="4">
         <v>516</v>
       </c>
       <c r="D243" s="4">
-        <v>4870</v>
+        <v>4877</v>
       </c>
       <c r="E243" s="4">
-        <v>7974</v>
+        <v>7994</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>158721</v>
+        <v>159828</v>
       </c>
       <c r="C244" s="4">
-        <v>11774</v>
+        <v>11799</v>
       </c>
       <c r="D244" s="4">
-        <v>76991</v>
+        <v>77567</v>
       </c>
       <c r="E244" s="4">
-        <v>247486</v>
+        <v>249194</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>18819</v>
+        <v>18946</v>
       </c>
       <c r="C245" s="4">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D245" s="4">
-        <v>30385</v>
+        <v>30898</v>
       </c>
       <c r="E245" s="4">
-        <v>50035</v>
+        <v>50676</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>48328</v>
+        <v>48687</v>
       </c>
       <c r="C246" s="4">
         <v>241</v>
       </c>
       <c r="D246" s="4">
-        <v>8785</v>
+        <v>8894</v>
       </c>
       <c r="E246" s="4">
-        <v>57354</v>
+        <v>57822</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>852360</v>
+        <v>856312</v>
       </c>
       <c r="C247" s="4">
-        <v>37098</v>
+        <v>37207</v>
       </c>
       <c r="D247" s="4">
-        <v>217210</v>
+        <v>218782</v>
       </c>
       <c r="E247" s="4">
-        <v>1106668</v>
+        <v>1112301</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>54882</v>
+        <v>55057</v>
       </c>
       <c r="C248" s="4">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D248" s="4">
-        <v>23699</v>
+        <v>23780</v>
       </c>
       <c r="E248" s="4">
-        <v>80188</v>
+        <v>80445</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>1866</v>
+        <v>1884</v>
       </c>
       <c r="C249" s="4">
         <v>74</v>
       </c>
       <c r="D249" s="4">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="E249" s="4">
-        <v>2728</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>77232</v>
+        <v>77550</v>
       </c>
       <c r="C250" s="4">
-        <v>4077</v>
+        <v>4084</v>
       </c>
       <c r="D250" s="4">
-        <v>17378</v>
+        <v>17469</v>
       </c>
       <c r="E250" s="4">
-        <v>98687</v>
+        <v>99103</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>30111</v>
+        <v>30209</v>
       </c>
       <c r="C251" s="4">
-        <v>2401</v>
+        <v>2404</v>
       </c>
       <c r="D251" s="4">
-        <v>18902</v>
+        <v>19018</v>
       </c>
       <c r="E251" s="4">
-        <v>51414</v>
+        <v>51631</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2991</v>
+        <v>3004</v>
       </c>
       <c r="C252" s="4">
         <v>175</v>
       </c>
       <c r="D252" s="4">
-        <v>2275</v>
+        <v>2287</v>
       </c>
       <c r="E252" s="4">
-        <v>5441</v>
+        <v>5466</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>11402</v>
+        <v>11462</v>
       </c>
       <c r="C253" s="4">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D253" s="4">
-        <v>6348</v>
+        <v>6382</v>
       </c>
       <c r="E253" s="4">
-        <v>18461</v>
+        <v>18556</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>18648</v>
+        <v>18657</v>
       </c>
       <c r="C254" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D254" s="4">
-        <v>18203</v>
+        <v>18253</v>
       </c>
       <c r="E254" s="4">
-        <v>37014</v>
+        <v>37074</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>14287</v>
+        <v>14426</v>
       </c>
       <c r="C255" s="4">
         <v>271</v>
       </c>
       <c r="D255" s="4">
-        <v>2919</v>
+        <v>2933</v>
       </c>
       <c r="E255" s="4">
-        <v>17477</v>
+        <v>17630</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>314751</v>
+        <v>317827</v>
       </c>
       <c r="C256" s="4">
-        <v>14435</v>
+        <v>14438</v>
       </c>
       <c r="D256" s="4">
-        <v>17373</v>
+        <v>17441</v>
       </c>
       <c r="E256" s="4">
-        <v>346559</v>
+        <v>349706</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>41199328</v>
+        <v>41395817</v>
       </c>
       <c r="C257" s="4">
-        <v>1751541</v>
+        <v>1754013</v>
       </c>
       <c r="D257" s="4">
-        <v>10758534</v>
+        <v>10821291</v>
       </c>
       <c r="E257" s="4">
-        <v>53709403</v>
+        <v>53971121</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
